--- a/Workings/Read-Me-File-Updates.xlsx
+++ b/Workings/Read-Me-File-Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tishs\AI_Impact_On_Jobs\Workings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33203F57-3C16-43CA-AE69-FBF5E9586F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352E757-5F41-4088-AFDC-707CBD86E45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-225" windowWidth="38640" windowHeight="15720" xr2:uid="{FD0DD87C-A088-4743-8CDC-1FCCD43EC0D8}"/>
+    <workbookView xWindow="38280" yWindow="-225" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{FD0DD87C-A088-4743-8CDC-1FCCD43EC0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Added Features" sheetId="1" r:id="rId1"/>
@@ -416,21 +416,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -474,6 +459,21 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,9 +562,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,37 +584,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,10 +642,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD149A3-1259-4F9A-B7AF-4F69D84EF531}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +988,10 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -996,10 +1002,10 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1010,10 +1016,10 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1024,10 +1030,10 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1038,10 +1044,10 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1052,18 +1058,18 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1071,10 +1077,10 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1473,279 +1479,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9442C8-217D-48A1-A859-15C21094F9D0}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="21" t="s">
         <v>86</v>
       </c>
     </row>
